--- a/Code/Results/Cases/Case_1_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.622851906870665</v>
+        <v>6.264634507416061</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.713026067952933</v>
+        <v>4.131892350614923</v>
       </c>
       <c r="E2">
-        <v>13.17340929001735</v>
+        <v>12.94353012288232</v>
       </c>
       <c r="F2">
-        <v>15.12971761530052</v>
+        <v>19.84064728920296</v>
       </c>
       <c r="G2">
-        <v>17.73094868035734</v>
+        <v>21.14119518385853</v>
       </c>
       <c r="H2">
-        <v>7.38758671096085</v>
+        <v>12.34772997530987</v>
       </c>
       <c r="I2">
-        <v>12.22666231315263</v>
+        <v>19.00773875537485</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.93580174380317</v>
+        <v>11.21451152523676</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.61423056857159</v>
+        <v>13.14410739126466</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.64122991384544</v>
+        <v>17.77530969758811</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.179648899077498</v>
+        <v>6.121846432533737</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.50023787656761</v>
+        <v>4.04615649401988</v>
       </c>
       <c r="E3">
-        <v>12.48924485550055</v>
+        <v>12.83110169929033</v>
       </c>
       <c r="F3">
-        <v>14.75086337296586</v>
+        <v>19.85857181684185</v>
       </c>
       <c r="G3">
-        <v>17.2115613141589</v>
+        <v>21.15806676827568</v>
       </c>
       <c r="H3">
-        <v>7.435826479566197</v>
+        <v>12.39362983825623</v>
       </c>
       <c r="I3">
-        <v>12.57366902153297</v>
+        <v>19.12678738975166</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.13755655029862</v>
+        <v>10.83460530348953</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.5898320287739</v>
+        <v>12.86686642439832</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.59734743317832</v>
+        <v>17.8424945560641</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.8926299601182</v>
+        <v>6.033133252159688</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.363801965390012</v>
+        <v>3.991964515154414</v>
       </c>
       <c r="E4">
-        <v>12.06550828872086</v>
+        <v>12.76689868771772</v>
       </c>
       <c r="F4">
-        <v>14.53076367362794</v>
+        <v>19.87606788453306</v>
       </c>
       <c r="G4">
-        <v>16.91318903645171</v>
+        <v>21.17789419210035</v>
       </c>
       <c r="H4">
-        <v>7.471266725007522</v>
+        <v>12.42407114179932</v>
       </c>
       <c r="I4">
-        <v>12.79278742381209</v>
+        <v>19.20361581150247</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.62487729697309</v>
+        <v>10.59285575717776</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.92753593863225</v>
+        <v>12.69605493571375</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.58377669283557</v>
+        <v>17.88843762545484</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.771953830249575</v>
+        <v>5.996769713533097</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.30679083829448</v>
+        <v>3.969508424055047</v>
       </c>
       <c r="E5">
-        <v>11.89215393763394</v>
+        <v>12.741977943029</v>
       </c>
       <c r="F5">
-        <v>14.44428792493254</v>
+        <v>19.8848261948227</v>
       </c>
       <c r="G5">
-        <v>16.79685176926215</v>
+        <v>21.18834493267646</v>
       </c>
       <c r="H5">
-        <v>7.487113553130144</v>
+        <v>12.43704378126362</v>
       </c>
       <c r="I5">
-        <v>12.88363225839745</v>
+        <v>19.23586517630304</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.41042636365057</v>
+        <v>10.49230843079914</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.64928241904684</v>
+        <v>12.62639935856384</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.58148006262645</v>
+        <v>17.90833558631832</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.751692461017219</v>
+        <v>5.990720246376793</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.29724024246972</v>
+        <v>3.965757637923495</v>
       </c>
       <c r="E6">
-        <v>11.86333540852595</v>
+        <v>12.73791568498308</v>
       </c>
       <c r="F6">
-        <v>14.43012472474173</v>
+        <v>19.88637873988914</v>
       </c>
       <c r="G6">
-        <v>16.77785328826942</v>
+        <v>21.19022313018539</v>
       </c>
       <c r="H6">
-        <v>7.489828057330837</v>
+        <v>12.43923214632409</v>
       </c>
       <c r="I6">
-        <v>12.89881158167739</v>
+        <v>19.24127708189958</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.37448765863694</v>
+        <v>10.4754930419136</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.60257432942345</v>
+        <v>12.61483309972584</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.58129011789005</v>
+        <v>17.91171052635462</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.891017467750352</v>
+        <v>6.032643633009338</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.363038751613341</v>
+        <v>3.99166314883628</v>
       </c>
       <c r="E7">
-        <v>12.06317277072315</v>
+        <v>12.76655753180666</v>
       </c>
       <c r="F7">
-        <v>14.52958432583291</v>
+        <v>19.87617941382791</v>
       </c>
       <c r="G7">
-        <v>16.91159871023181</v>
+        <v>21.17802554965502</v>
       </c>
       <c r="H7">
-        <v>7.471474830021117</v>
+        <v>12.42424379782936</v>
       </c>
       <c r="I7">
-        <v>12.79400626507016</v>
+        <v>19.20404692340813</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.62200731932556</v>
+        <v>10.5915078282382</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.92381714219397</v>
+        <v>12.69511560070594</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.58373280213294</v>
+        <v>17.8887012208292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.473141442795046</v>
+        <v>6.215646219874276</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.640879919300106</v>
+        <v>4.102662368725765</v>
       </c>
       <c r="E8">
-        <v>12.93840119893939</v>
+        <v>12.903780569888</v>
       </c>
       <c r="F8">
-        <v>14.99653544522501</v>
+        <v>19.84547880165471</v>
       </c>
       <c r="G8">
-        <v>17.54766317694997</v>
+        <v>21.1450421166094</v>
       </c>
       <c r="H8">
-        <v>7.402975502234511</v>
+        <v>12.36308724644606</v>
       </c>
       <c r="I8">
-        <v>12.34507179229237</v>
+        <v>19.04801375943824</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.66532376629632</v>
+        <v>11.08533857759361</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.26793447032047</v>
+        <v>13.04869421999375</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.62324778037117</v>
+        <v>17.79749906668952</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.495658761670748</v>
+        <v>6.564194355655459</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.138343546456418</v>
+        <v>4.307324827677403</v>
       </c>
       <c r="E9">
-        <v>14.61711337902999</v>
+        <v>13.20979723977434</v>
       </c>
       <c r="F9">
-        <v>16.00803015513537</v>
+        <v>19.8368814642292</v>
       </c>
       <c r="G9">
-        <v>18.95291317509917</v>
+        <v>21.15581694296206</v>
       </c>
       <c r="H9">
-        <v>7.317582744847961</v>
+        <v>12.26109741763884</v>
       </c>
       <c r="I9">
-        <v>11.5113491294092</v>
+        <v>18.77152162338909</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.52748810298421</v>
+        <v>11.98248582101133</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.63972538636674</v>
+        <v>13.7332500756506</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.81226645518037</v>
+        <v>17.65604320459275</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.173709011332305</v>
+        <v>6.811396334619589</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.473359541922743</v>
+        <v>4.448882547854841</v>
       </c>
       <c r="E10">
-        <v>15.87106874422808</v>
+        <v>13.45509401860573</v>
       </c>
       <c r="F10">
-        <v>16.80450757277986</v>
+        <v>19.86210133134809</v>
       </c>
       <c r="G10">
-        <v>20.07407941359742</v>
+        <v>21.21001074021543</v>
       </c>
       <c r="H10">
-        <v>7.288592067967138</v>
+        <v>12.19712401969727</v>
       </c>
       <c r="I10">
-        <v>10.92519956988644</v>
+        <v>18.5861850829817</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.77878343251245</v>
+        <v>12.59361888708364</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.22280844716581</v>
+        <v>14.22549496576903</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.02594002634566</v>
+        <v>17.57513170484575</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.466265193526187</v>
+        <v>6.921434384991549</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.61891678804433</v>
+        <v>4.511202495093068</v>
       </c>
       <c r="E11">
-        <v>16.5044481878759</v>
+        <v>13.57065156759668</v>
       </c>
       <c r="F11">
-        <v>17.17733509992392</v>
+        <v>19.88041347897431</v>
       </c>
       <c r="G11">
-        <v>20.60172613913834</v>
+        <v>21.24471749901811</v>
       </c>
       <c r="H11">
-        <v>7.283613707930042</v>
+        <v>12.17040543073298</v>
       </c>
       <c r="I11">
-        <v>10.66380768394354</v>
+        <v>18.50569914206797</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.32203956659023</v>
+        <v>12.86043184396302</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.90893115378542</v>
+        <v>14.44606695064005</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.14065746252783</v>
+        <v>17.54336490194993</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.574767320053269</v>
+        <v>6.962718314322595</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.673037240676613</v>
+        <v>4.534490440146683</v>
       </c>
       <c r="E12">
-        <v>16.74111754464743</v>
+        <v>13.61493890849104</v>
       </c>
       <c r="F12">
-        <v>17.31993987628664</v>
+        <v>19.88832850148185</v>
       </c>
       <c r="G12">
-        <v>20.80393538818918</v>
+        <v>21.25930172779445</v>
       </c>
       <c r="H12">
-        <v>7.28298421024777</v>
+        <v>12.16063096148804</v>
       </c>
       <c r="I12">
-        <v>10.565541065791</v>
+        <v>18.47576841374336</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.52399100191129</v>
+        <v>12.95980233086882</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.16391257408335</v>
+        <v>14.52902970618524</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.1867073098314</v>
+        <v>17.53206378356143</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.551500880723637</v>
+        <v>6.953844779315364</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.661426059600302</v>
+        <v>4.52948900201006</v>
       </c>
       <c r="E13">
-        <v>16.69028648874395</v>
+        <v>13.60537803737054</v>
       </c>
       <c r="F13">
-        <v>17.28916540098382</v>
+        <v>19.8865803065886</v>
       </c>
       <c r="G13">
-        <v>20.76028119605094</v>
+        <v>21.25609673652015</v>
       </c>
       <c r="H13">
-        <v>7.283062722066474</v>
+        <v>12.16272079169537</v>
       </c>
       <c r="I13">
-        <v>10.58667328306949</v>
+        <v>18.48219021741084</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.48066512789146</v>
+        <v>12.938476020863</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.1092119757573</v>
+        <v>14.5111884679479</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.17667228947033</v>
+        <v>17.53446523755523</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.475237445896717</v>
+        <v>6.924838762621061</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.623389402754587</v>
+        <v>4.513124716589158</v>
       </c>
       <c r="E14">
-        <v>16.52398230350467</v>
+        <v>13.57428477655003</v>
       </c>
       <c r="F14">
-        <v>17.18903923277266</v>
+        <v>19.88104502089215</v>
       </c>
       <c r="G14">
-        <v>20.61831461093073</v>
+        <v>21.24588849558279</v>
       </c>
       <c r="H14">
-        <v>7.283536316324084</v>
+        <v>12.16959439612515</v>
       </c>
       <c r="I14">
-        <v>10.65570908792231</v>
+        <v>18.50322576307103</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.3387298951782</v>
+        <v>12.86864079398958</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.93000524854017</v>
+        <v>14.45290407617168</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.1443932440998</v>
+        <v>17.54242053698226</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.428226778177196</v>
+        <v>6.907020517757842</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.599960382452938</v>
+        <v>4.503060219182498</v>
       </c>
       <c r="E15">
-        <v>16.42170492917201</v>
+        <v>13.55530675646009</v>
       </c>
       <c r="F15">
-        <v>17.12789192822725</v>
+        <v>19.87778209511895</v>
       </c>
       <c r="G15">
-        <v>20.53166492970731</v>
+        <v>21.23982321219322</v>
       </c>
       <c r="H15">
-        <v>7.283992194585387</v>
+        <v>12.17384939960339</v>
       </c>
       <c r="I15">
-        <v>10.69808770449549</v>
+        <v>18.51618187807187</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.25129899134108</v>
+        <v>12.82564622648353</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.81960764774315</v>
+        <v>14.4171275623737</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.12496365508792</v>
+        <v>17.54738833164175</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.154270132717105</v>
+        <v>6.804153191886318</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.463707977482615</v>
+        <v>4.444766911639637</v>
       </c>
       <c r="E16">
-        <v>15.82922666226629</v>
+        <v>13.44761833098899</v>
       </c>
       <c r="F16">
-        <v>16.78034615367269</v>
+        <v>19.86104199854554</v>
       </c>
       <c r="G16">
-        <v>20.03993937944181</v>
+        <v>21.2079445841588</v>
       </c>
       <c r="H16">
-        <v>7.28908900121943</v>
+        <v>12.19891814818537</v>
       </c>
       <c r="I16">
-        <v>10.94238456489622</v>
+        <v>18.59152178146254</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.74275466034893</v>
+        <v>12.57595181399754</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.1772884466097</v>
+        <v>14.21100556312232</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.01880335760575</v>
+        <v>17.57730946639424</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.982136957956758</v>
+        <v>6.740401001776503</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.37835709410426</v>
+        <v>4.408464860327353</v>
       </c>
       <c r="E17">
-        <v>15.47255913770343</v>
+        <v>13.38254190671179</v>
       </c>
       <c r="F17">
-        <v>16.56976418707571</v>
+        <v>19.85252258956897</v>
       </c>
       <c r="G17">
-        <v>19.74269644875172</v>
+        <v>21.19096098034027</v>
       </c>
       <c r="H17">
-        <v>7.294371351020996</v>
+        <v>12.21490782540812</v>
       </c>
       <c r="I17">
-        <v>11.09357082537632</v>
+        <v>18.63871820943881</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.42410035228006</v>
+        <v>12.41986298527292</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.77456683067619</v>
+        <v>14.08363842979778</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.95823087933864</v>
+        <v>17.59695859330823</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.881634228467682</v>
+        <v>6.703507157253566</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.328622051514973</v>
+        <v>4.387390240564622</v>
       </c>
       <c r="E18">
-        <v>15.29300229958695</v>
+        <v>13.34548806487018</v>
       </c>
       <c r="F18">
-        <v>16.449636749678</v>
+        <v>19.84826647142188</v>
       </c>
       <c r="G18">
-        <v>19.57339624446002</v>
+        <v>21.18213919091676</v>
       </c>
       <c r="H18">
-        <v>7.298177740546803</v>
+        <v>12.22432895142918</v>
       </c>
       <c r="I18">
-        <v>11.18102573821395</v>
+        <v>18.66622447719833</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.23837604469512</v>
+        <v>12.32903399716869</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.53972507011624</v>
+        <v>14.01006916646083</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.92503513649838</v>
+        <v>17.60873446590209</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.84734872163096</v>
+        <v>6.690978042762355</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.311672616044353</v>
+        <v>4.380221713972219</v>
       </c>
       <c r="E19">
-        <v>15.232081135469</v>
+        <v>13.33300820258758</v>
       </c>
       <c r="F19">
-        <v>16.40913713409666</v>
+        <v>19.84693610180167</v>
       </c>
       <c r="G19">
-        <v>19.51636452441626</v>
+        <v>21.17931496867947</v>
       </c>
       <c r="H19">
-        <v>7.299596181844378</v>
+        <v>12.22755728673805</v>
       </c>
       <c r="I19">
-        <v>11.2107228967005</v>
+        <v>18.67559955377197</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.17507470309608</v>
+        <v>12.29810221007331</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.45965936392237</v>
+        <v>13.98510900619853</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.91407507745377</v>
+        <v>17.61280291097978</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.00061567940431</v>
+        <v>6.747211128634531</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.387509557269611</v>
+        <v>4.412349516234089</v>
       </c>
       <c r="E20">
-        <v>15.50573057085388</v>
+        <v>13.38943075411808</v>
       </c>
       <c r="F20">
-        <v>16.59207880866809</v>
+        <v>19.85336285847737</v>
       </c>
       <c r="G20">
-        <v>19.77416704267692</v>
+        <v>21.19267095244193</v>
       </c>
       <c r="H20">
-        <v>7.29372899908187</v>
+        <v>12.21318247997376</v>
       </c>
       <c r="I20">
-        <v>11.07742566844788</v>
+        <v>18.63365681453567</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.45827475632379</v>
+        <v>12.43658809259265</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.81776877036093</v>
+        <v>14.09722967489209</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.96450809858815</v>
+        <v>17.59481780479058</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.497699773279912</v>
+        <v>6.933369270848866</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.6345889023371</v>
+        <v>4.517939848953294</v>
       </c>
       <c r="E21">
-        <v>16.57291541907217</v>
+        <v>13.58340363178538</v>
       </c>
       <c r="F21">
-        <v>17.21841075111734</v>
+        <v>19.88264428442918</v>
       </c>
       <c r="G21">
-        <v>20.65994947014422</v>
+        <v>21.2488478276024</v>
       </c>
       <c r="H21">
-        <v>7.283362523736855</v>
+        <v>12.167566130776</v>
       </c>
       <c r="I21">
-        <v>10.63541245589043</v>
+        <v>18.49703227218867</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.38052217925029</v>
+        <v>12.889198712859</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.98277343559245</v>
+        <v>14.47003951543437</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.15380290845276</v>
+        <v>17.54006408048374</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.809272237917973</v>
+        <v>7.052774269417377</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.790242571695481</v>
+        <v>4.585129672783888</v>
       </c>
       <c r="E22">
-        <v>17.25595583297278</v>
+        <v>13.71323440550257</v>
       </c>
       <c r="F22">
-        <v>17.63601547214436</v>
+        <v>19.90749489183849</v>
       </c>
       <c r="G22">
-        <v>21.2528030606956</v>
+        <v>21.29396113711012</v>
       </c>
       <c r="H22">
-        <v>7.283942596889377</v>
+        <v>12.13975437672137</v>
       </c>
       <c r="I22">
-        <v>10.35069069244955</v>
+        <v>18.41093067563459</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.96129533456033</v>
+        <v>13.17527537136428</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.71600163844096</v>
+        <v>14.71037649005302</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.29275951100033</v>
+        <v>17.50852581175639</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.644195347189155</v>
+        <v>6.989264109846149</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.7077044719675</v>
+        <v>4.549439675413259</v>
       </c>
       <c r="E23">
-        <v>16.89306496997763</v>
+        <v>13.64367583108475</v>
       </c>
       <c r="F23">
-        <v>17.41240282462773</v>
+        <v>19.89371015533005</v>
       </c>
       <c r="G23">
-        <v>20.93515019753714</v>
+        <v>21.26911694613496</v>
       </c>
       <c r="H23">
-        <v>7.282934755563826</v>
+        <v>12.15441473685059</v>
       </c>
       <c r="I23">
-        <v>10.50228445682004</v>
+        <v>18.45659358551428</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.65334385756249</v>
+        <v>13.02349790190765</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.32722092312237</v>
+        <v>14.58243290015783</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.2171738436838</v>
+        <v>17.52496872459795</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.99226624970836</v>
+        <v>6.744133020736041</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.383373800960079</v>
+        <v>4.410593897999987</v>
       </c>
       <c r="E24">
-        <v>15.49073634157986</v>
+        <v>13.38631518328172</v>
       </c>
       <c r="F24">
-        <v>16.58198743688474</v>
+        <v>19.8529809735237</v>
       </c>
       <c r="G24">
-        <v>19.759934228345</v>
+        <v>21.19189493853596</v>
       </c>
       <c r="H24">
-        <v>7.294017015258502</v>
+        <v>12.21396179707738</v>
       </c>
       <c r="I24">
-        <v>11.08472322175716</v>
+        <v>18.63594391094526</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.44283237250945</v>
+        <v>12.42903006688163</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.79824749281851</v>
+        <v>14.0910861388792</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.96166510327493</v>
+        <v>17.5957841624577</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.231872899751483</v>
+        <v>6.471284878630271</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.009023119806346</v>
+        <v>4.253445281797457</v>
       </c>
       <c r="E25">
-        <v>14.16804579435516</v>
+        <v>13.12326081092765</v>
       </c>
       <c r="F25">
-        <v>15.72464928930876</v>
+        <v>19.83366989903309</v>
       </c>
       <c r="G25">
-        <v>18.55659739708519</v>
+        <v>21.14478502770749</v>
       </c>
       <c r="H25">
-        <v>7.335048832351966</v>
+        <v>12.28676560981872</v>
       </c>
       <c r="I25">
-        <v>11.73210684057844</v>
+        <v>18.8431812844154</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.0439731472008</v>
+        <v>11.74791898796407</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.02625289169825</v>
+        <v>13.54956928522681</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.74845558930752</v>
+        <v>17.69028428399887</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.264634507416061</v>
+        <v>7.622851906870645</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.131892350614923</v>
+        <v>4.713026067953043</v>
       </c>
       <c r="E2">
-        <v>12.94353012288232</v>
+        <v>13.17340929001737</v>
       </c>
       <c r="F2">
-        <v>19.84064728920296</v>
+        <v>15.12971761530041</v>
       </c>
       <c r="G2">
-        <v>21.14119518385853</v>
+        <v>17.73094868035729</v>
       </c>
       <c r="H2">
-        <v>12.34772997530987</v>
+        <v>7.38758671096069</v>
       </c>
       <c r="I2">
-        <v>19.00773875537485</v>
+        <v>12.22666231315263</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.21451152523676</v>
+        <v>15.93580174380324</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.14410739126466</v>
+        <v>16.61423056857159</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.77530969758811</v>
+        <v>11.64122991384534</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.121846432533737</v>
+        <v>7.1796488990775</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.04615649401988</v>
+        <v>4.500237876567574</v>
       </c>
       <c r="E3">
-        <v>12.83110169929033</v>
+        <v>12.48924485550056</v>
       </c>
       <c r="F3">
-        <v>19.85857181684185</v>
+        <v>14.75086337296588</v>
       </c>
       <c r="G3">
-        <v>21.15806676827568</v>
+        <v>17.21156131415885</v>
       </c>
       <c r="H3">
-        <v>12.39362983825623</v>
+        <v>7.435826479566203</v>
       </c>
       <c r="I3">
-        <v>19.12678738975166</v>
+        <v>12.57366902153294</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.83460530348953</v>
+        <v>15.13755655029859</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.86686642439832</v>
+        <v>15.5898320287739</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.8424945560641</v>
+        <v>11.59734743317828</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.033133252159688</v>
+        <v>6.892629960118255</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.991964515154414</v>
+        <v>4.363801965390113</v>
       </c>
       <c r="E4">
-        <v>12.76689868771772</v>
+        <v>12.06550828872083</v>
       </c>
       <c r="F4">
-        <v>19.87606788453306</v>
+        <v>14.53076367362788</v>
       </c>
       <c r="G4">
-        <v>21.17789419210035</v>
+        <v>16.91318903645173</v>
       </c>
       <c r="H4">
-        <v>12.42407114179932</v>
+        <v>7.471266725007404</v>
       </c>
       <c r="I4">
-        <v>19.20361581150247</v>
+        <v>12.79278742381202</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.59285575717776</v>
+        <v>14.6248772969731</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.69605493571375</v>
+        <v>14.92753593863227</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.88843762545484</v>
+        <v>11.58377669283555</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.996769713533097</v>
+        <v>6.771953830249575</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.969508424055047</v>
+        <v>4.306790838294498</v>
       </c>
       <c r="E5">
-        <v>12.741977943029</v>
+        <v>11.892153937634</v>
       </c>
       <c r="F5">
-        <v>19.8848261948227</v>
+        <v>14.44428792493235</v>
       </c>
       <c r="G5">
-        <v>21.18834493267646</v>
+        <v>16.79685176926195</v>
       </c>
       <c r="H5">
-        <v>12.43704378126362</v>
+        <v>7.48711355313003</v>
       </c>
       <c r="I5">
-        <v>19.23586517630304</v>
+        <v>12.88363225839745</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.49230843079914</v>
+        <v>14.41042636365069</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.62639935856384</v>
+        <v>14.64928241904686</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.90833558631832</v>
+        <v>11.58148006262631</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.990720246376793</v>
+        <v>6.751692461017197</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.965757637923495</v>
+        <v>4.297240242469841</v>
       </c>
       <c r="E6">
-        <v>12.73791568498308</v>
+        <v>11.86333540852595</v>
       </c>
       <c r="F6">
-        <v>19.88637873988914</v>
+        <v>14.43012472474158</v>
       </c>
       <c r="G6">
-        <v>21.19022313018539</v>
+        <v>16.77785328826936</v>
       </c>
       <c r="H6">
-        <v>12.43923214632409</v>
+        <v>7.489828057330773</v>
       </c>
       <c r="I6">
-        <v>19.24127708189958</v>
+        <v>12.89881158167739</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.4754930419136</v>
+        <v>14.37448765863701</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.61483309972584</v>
+        <v>14.60257432942349</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.91171052635462</v>
+        <v>11.58129011788992</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.032643633009338</v>
+        <v>6.891017467750358</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.99166314883628</v>
+        <v>4.363038751613411</v>
       </c>
       <c r="E7">
-        <v>12.76655753180666</v>
+        <v>12.06317277072315</v>
       </c>
       <c r="F7">
-        <v>19.87617941382791</v>
+        <v>14.52958432583283</v>
       </c>
       <c r="G7">
-        <v>21.17802554965502</v>
+        <v>16.91159871023174</v>
       </c>
       <c r="H7">
-        <v>12.42424379782936</v>
+        <v>7.471474830021063</v>
       </c>
       <c r="I7">
-        <v>19.20404692340813</v>
+        <v>12.79400626507023</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.5915078282382</v>
+        <v>14.62200731932563</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.69511560070594</v>
+        <v>14.92381714219403</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.8887012208292</v>
+        <v>11.58373280213288</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.215646219874276</v>
+        <v>7.473141442795055</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.102662368725765</v>
+        <v>4.640879919300098</v>
       </c>
       <c r="E8">
-        <v>12.903780569888</v>
+        <v>12.93840119893941</v>
       </c>
       <c r="F8">
-        <v>19.84547880165471</v>
+        <v>14.99653544522505</v>
       </c>
       <c r="G8">
-        <v>21.1450421166094</v>
+        <v>17.54766317695001</v>
       </c>
       <c r="H8">
-        <v>12.36308724644606</v>
+        <v>7.402975502234514</v>
       </c>
       <c r="I8">
-        <v>19.04801375943824</v>
+        <v>12.34507179229244</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.08533857759361</v>
+        <v>15.66532376629633</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.04869421999375</v>
+        <v>16.26793447032047</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.79749906668952</v>
+        <v>11.62324778037121</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.564194355655459</v>
+        <v>8.495658761670757</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.307324827677403</v>
+        <v>5.13834354645651</v>
       </c>
       <c r="E9">
-        <v>13.20979723977434</v>
+        <v>14.61711337903001</v>
       </c>
       <c r="F9">
-        <v>19.8368814642292</v>
+        <v>16.00803015513524</v>
       </c>
       <c r="G9">
-        <v>21.15581694296206</v>
+        <v>18.9529131750991</v>
       </c>
       <c r="H9">
-        <v>12.26109741763884</v>
+        <v>7.317582744847903</v>
       </c>
       <c r="I9">
-        <v>18.77152162338909</v>
+        <v>11.51134912940916</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.98248582101133</v>
+        <v>17.52748810298431</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.7332500756506</v>
+        <v>18.63972538636678</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.65604320459275</v>
+        <v>11.81226645518024</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.811396334619589</v>
+        <v>9.173709011332269</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.448882547854841</v>
+        <v>5.473359541922804</v>
       </c>
       <c r="E10">
-        <v>13.45509401860573</v>
+        <v>15.87106874422809</v>
       </c>
       <c r="F10">
-        <v>19.86210133134809</v>
+        <v>16.80450757277974</v>
       </c>
       <c r="G10">
-        <v>21.21001074021543</v>
+        <v>20.07407941359743</v>
       </c>
       <c r="H10">
-        <v>12.19712401969727</v>
+        <v>7.288592067967077</v>
       </c>
       <c r="I10">
-        <v>18.5861850829817</v>
+        <v>10.92519956988648</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.59361888708364</v>
+        <v>18.77878343251252</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.22549496576903</v>
+        <v>20.22280844716585</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.57513170484575</v>
+        <v>12.0259400263456</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.921434384991549</v>
+        <v>9.466265193526175</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.511202495093068</v>
+        <v>5.618916788044272</v>
       </c>
       <c r="E11">
-        <v>13.57065156759668</v>
+        <v>16.50444818787587</v>
       </c>
       <c r="F11">
-        <v>19.88041347897431</v>
+        <v>17.17733509992384</v>
       </c>
       <c r="G11">
-        <v>21.24471749901811</v>
+        <v>20.60172613913831</v>
       </c>
       <c r="H11">
-        <v>12.17040543073298</v>
+        <v>7.283613707930001</v>
       </c>
       <c r="I11">
-        <v>18.50569914206797</v>
+        <v>10.66380768394344</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.86043184396302</v>
+        <v>19.32203956659034</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.44606695064005</v>
+        <v>20.90893115378545</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.54336490194993</v>
+        <v>12.14065746252768</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.962718314322595</v>
+        <v>9.574767320053269</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.534490440146683</v>
+        <v>5.673037240676685</v>
       </c>
       <c r="E12">
-        <v>13.61493890849104</v>
+        <v>16.74111754464747</v>
       </c>
       <c r="F12">
-        <v>19.88832850148185</v>
+        <v>17.31993987628652</v>
       </c>
       <c r="G12">
-        <v>21.25930172779445</v>
+        <v>20.80393538818909</v>
       </c>
       <c r="H12">
-        <v>12.16063096148804</v>
+        <v>7.282984210247699</v>
       </c>
       <c r="I12">
-        <v>18.47576841374336</v>
+        <v>10.56554106579087</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.95980233086882</v>
+        <v>19.52399100191132</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.52902970618524</v>
+        <v>21.16391257408336</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.53206378356143</v>
+        <v>12.18670730983129</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.953844779315364</v>
+        <v>9.551500880723699</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.52948900201006</v>
+        <v>5.661426059600426</v>
       </c>
       <c r="E13">
-        <v>13.60537803737054</v>
+        <v>16.69028648874394</v>
       </c>
       <c r="F13">
-        <v>19.8865803065886</v>
+        <v>17.2891654009838</v>
       </c>
       <c r="G13">
-        <v>21.25609673652015</v>
+        <v>20.76028119605095</v>
       </c>
       <c r="H13">
-        <v>12.16272079169537</v>
+        <v>7.283062722066481</v>
       </c>
       <c r="I13">
-        <v>18.48219021741084</v>
+        <v>10.58667328306952</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.938476020863</v>
+        <v>19.48066512789151</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.5111884679479</v>
+        <v>21.10921197575731</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.53446523755523</v>
+        <v>12.17667228947036</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.924838762621061</v>
+        <v>9.475237445896713</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.513124716589158</v>
+        <v>5.623389402754717</v>
       </c>
       <c r="E14">
-        <v>13.57428477655003</v>
+        <v>16.5239823035047</v>
       </c>
       <c r="F14">
-        <v>19.88104502089215</v>
+        <v>17.18903923277256</v>
       </c>
       <c r="G14">
-        <v>21.24588849558279</v>
+        <v>20.61831461093066</v>
       </c>
       <c r="H14">
-        <v>12.16959439612515</v>
+        <v>7.283536316324018</v>
       </c>
       <c r="I14">
-        <v>18.50322576307103</v>
+        <v>10.65570908792221</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.86864079398958</v>
+        <v>19.3387298951782</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.45290407617168</v>
+        <v>20.93000524854018</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.54242053698226</v>
+        <v>12.14439324409972</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.907020517757842</v>
+        <v>9.428226778177153</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.503060219182498</v>
+        <v>5.599960382452974</v>
       </c>
       <c r="E15">
-        <v>13.55530675646009</v>
+        <v>16.42170492917204</v>
       </c>
       <c r="F15">
-        <v>19.87778209511895</v>
+        <v>17.12789192822712</v>
       </c>
       <c r="G15">
-        <v>21.23982321219322</v>
+        <v>20.53166492970718</v>
       </c>
       <c r="H15">
-        <v>12.17384939960339</v>
+        <v>7.283992194585284</v>
       </c>
       <c r="I15">
-        <v>18.51618187807187</v>
+        <v>10.69808770449545</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.82564622648353</v>
+        <v>19.25129899134117</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.4171275623737</v>
+        <v>20.81960764774317</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.54738833164175</v>
+        <v>12.12496365508779</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.804153191886318</v>
+        <v>9.154270132717082</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.444766911639637</v>
+        <v>5.463707977482687</v>
       </c>
       <c r="E16">
-        <v>13.44761833098899</v>
+        <v>15.82922666226628</v>
       </c>
       <c r="F16">
-        <v>19.86104199854554</v>
+        <v>16.78034615367265</v>
       </c>
       <c r="G16">
-        <v>21.2079445841588</v>
+        <v>20.03993937944176</v>
       </c>
       <c r="H16">
-        <v>12.19891814818537</v>
+        <v>7.289089001219424</v>
       </c>
       <c r="I16">
-        <v>18.59152178146254</v>
+        <v>10.94238456489625</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.57595181399754</v>
+        <v>18.74275466034893</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.21100556312232</v>
+        <v>20.1772884466097</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.57730946639424</v>
+        <v>12.01880335760571</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.740401001776503</v>
+        <v>8.982136957956726</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.408464860327353</v>
+        <v>5.378357094104282</v>
       </c>
       <c r="E17">
-        <v>13.38254190671179</v>
+        <v>15.47255913770343</v>
       </c>
       <c r="F17">
-        <v>19.85252258956897</v>
+        <v>16.56976418707562</v>
       </c>
       <c r="G17">
-        <v>21.19096098034027</v>
+        <v>19.74269644875163</v>
       </c>
       <c r="H17">
-        <v>12.21490782540812</v>
+        <v>7.294371351020986</v>
       </c>
       <c r="I17">
-        <v>18.63871820943881</v>
+        <v>11.09357082537633</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.41986298527292</v>
+        <v>18.42410035228011</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.08363842979778</v>
+        <v>19.77456683067619</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.59695859330823</v>
+        <v>11.95823087933857</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.703507157253566</v>
+        <v>8.881634228467705</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.387390240564622</v>
+        <v>5.328622051515042</v>
       </c>
       <c r="E18">
-        <v>13.34548806487018</v>
+        <v>15.29300229958696</v>
       </c>
       <c r="F18">
-        <v>19.84826647142188</v>
+        <v>16.44963674967786</v>
       </c>
       <c r="G18">
-        <v>21.18213919091676</v>
+        <v>19.57339624445992</v>
       </c>
       <c r="H18">
-        <v>12.22432895142918</v>
+        <v>7.298177740546747</v>
       </c>
       <c r="I18">
-        <v>18.66622447719833</v>
+        <v>11.18102573821378</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.32903399716869</v>
+        <v>18.23837604469513</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.01006916646083</v>
+        <v>19.53972507011627</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.60873446590209</v>
+        <v>11.92503513649827</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.690978042762355</v>
+        <v>8.847348721630967</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.380221713972219</v>
+        <v>5.311672616044353</v>
       </c>
       <c r="E19">
-        <v>13.33300820258758</v>
+        <v>15.23208113546901</v>
       </c>
       <c r="F19">
-        <v>19.84693610180167</v>
+        <v>16.40913713409669</v>
       </c>
       <c r="G19">
-        <v>21.17931496867947</v>
+        <v>19.51636452441623</v>
       </c>
       <c r="H19">
-        <v>12.22755728673805</v>
+        <v>7.299596181844385</v>
       </c>
       <c r="I19">
-        <v>18.67559955377197</v>
+        <v>11.2107228967005</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.29810221007331</v>
+        <v>18.1750747030961</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.98510900619853</v>
+        <v>19.45965936392239</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.61280291097978</v>
+        <v>11.91407507745376</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.747211128634531</v>
+        <v>9.000615679404342</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.412349516234089</v>
+        <v>5.38750955726967</v>
       </c>
       <c r="E20">
-        <v>13.38943075411808</v>
+        <v>15.50573057085388</v>
       </c>
       <c r="F20">
-        <v>19.85336285847737</v>
+        <v>16.59207880866808</v>
       </c>
       <c r="G20">
-        <v>21.19267095244193</v>
+        <v>19.77416704267689</v>
       </c>
       <c r="H20">
-        <v>12.21318247997376</v>
+        <v>7.29372899908187</v>
       </c>
       <c r="I20">
-        <v>18.63365681453567</v>
+        <v>11.07742566844788</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.43658809259265</v>
+        <v>18.45827475632384</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.09722967489209</v>
+        <v>19.81776877036098</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.59481780479058</v>
+        <v>11.96450809858812</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.933369270848866</v>
+        <v>9.497699773279896</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.517939848953294</v>
+        <v>5.634588902337064</v>
       </c>
       <c r="E21">
-        <v>13.58340363178538</v>
+        <v>16.57291541907221</v>
       </c>
       <c r="F21">
-        <v>19.88264428442918</v>
+        <v>17.21841075111726</v>
       </c>
       <c r="G21">
-        <v>21.2488478276024</v>
+        <v>20.6599494701441</v>
       </c>
       <c r="H21">
-        <v>12.167566130776</v>
+        <v>7.2833625237368</v>
       </c>
       <c r="I21">
-        <v>18.49703227218867</v>
+        <v>10.63541245589033</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.889198712859</v>
+        <v>19.38052217925038</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.47003951543437</v>
+        <v>20.98277343559252</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.54006408048374</v>
+        <v>12.15380290845263</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.052774269417377</v>
+        <v>9.809272237917979</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.585129672783888</v>
+        <v>5.790242571695404</v>
       </c>
       <c r="E22">
-        <v>13.71323440550257</v>
+        <v>17.25595583297277</v>
       </c>
       <c r="F22">
-        <v>19.90749489183849</v>
+        <v>17.63601547214436</v>
       </c>
       <c r="G22">
-        <v>21.29396113711012</v>
+        <v>21.25280306069558</v>
       </c>
       <c r="H22">
-        <v>12.13975437672137</v>
+        <v>7.283942596889341</v>
       </c>
       <c r="I22">
-        <v>18.41093067563459</v>
+        <v>10.35069069244951</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.17527537136428</v>
+        <v>19.96129533456032</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.71037649005302</v>
+        <v>21.71600163844096</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.50852581175639</v>
+        <v>12.29275951100029</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.989264109846149</v>
+        <v>9.644195347189173</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.549439675413259</v>
+        <v>5.707704471967514</v>
       </c>
       <c r="E23">
-        <v>13.64367583108475</v>
+        <v>16.89306496997762</v>
       </c>
       <c r="F23">
-        <v>19.89371015533005</v>
+        <v>17.41240282462769</v>
       </c>
       <c r="G23">
-        <v>21.26911694613496</v>
+        <v>20.93515019753715</v>
       </c>
       <c r="H23">
-        <v>12.15441473685059</v>
+        <v>7.282934755563766</v>
       </c>
       <c r="I23">
-        <v>18.45659358551428</v>
+        <v>10.50228445681993</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.02349790190765</v>
+        <v>19.65334385756251</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.58243290015783</v>
+        <v>21.32722092312238</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.52496872459795</v>
+        <v>12.21717384368374</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.744133020736041</v>
+        <v>8.992266249708337</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.410593897999987</v>
+        <v>5.383373800960155</v>
       </c>
       <c r="E24">
-        <v>13.38631518328172</v>
+        <v>15.49073634157989</v>
       </c>
       <c r="F24">
-        <v>19.8529809735237</v>
+        <v>16.5819874368847</v>
       </c>
       <c r="G24">
-        <v>21.19189493853596</v>
+        <v>19.75993422834494</v>
       </c>
       <c r="H24">
-        <v>12.21396179707738</v>
+        <v>7.29401701525842</v>
       </c>
       <c r="I24">
-        <v>18.63594391094526</v>
+        <v>11.08472322175716</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.42903006688163</v>
+        <v>18.44283237250949</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.0910861388792</v>
+        <v>19.79824749281855</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.5957841624577</v>
+        <v>11.96166510327489</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.471284878630271</v>
+        <v>8.231872899751501</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.253445281797457</v>
+        <v>5.009023119806221</v>
       </c>
       <c r="E25">
-        <v>13.12326081092765</v>
+        <v>14.16804579435518</v>
       </c>
       <c r="F25">
-        <v>19.83366989903309</v>
+        <v>15.72464928930875</v>
       </c>
       <c r="G25">
-        <v>21.14478502770749</v>
+        <v>18.55659739708516</v>
       </c>
       <c r="H25">
-        <v>12.28676560981872</v>
+        <v>7.335048832351922</v>
       </c>
       <c r="I25">
-        <v>18.8431812844154</v>
+        <v>11.7321068405784</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.74791898796407</v>
+        <v>17.04397314720086</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.54956928522681</v>
+        <v>18.02625289169825</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.69028428399887</v>
+        <v>11.74845558930747</v>
       </c>
     </row>
   </sheetData>
